--- a/input/chipseq_PCa_corepressor/chipseq_PCA_corepressor_fastq_list.xlsx
+++ b/input/chipseq_PCa_corepressor/chipseq_PCA_corepressor_fastq_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Desktop/20240422_PCa_ChIP_corepressor/input/chipseq_PCa_corepressor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959F127E-60DB-7A40-8BBB-1FA641C6092A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F394A3-4303-3849-80AC-D984C0EAB752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{306AA37F-DFF1-C844-A03A-B30D0E0B0F5A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="9440" xr2:uid="{306AA37F-DFF1-C844-A03A-B30D0E0B0F5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
   <si>
     <t>condition</t>
   </si>
@@ -184,6 +184,15 @@
   </si>
   <si>
     <t>R1881</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>PAIRED_END</t>
+  </si>
+  <si>
+    <t>SINGLE_END</t>
   </si>
 </sst>
 </file>
@@ -570,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0257F79D-A2FC-334F-BF39-D9F97A51EEDB}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,14 +591,14 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="41.33203125" customWidth="1"/>
-    <col min="7" max="7" width="51" customWidth="1"/>
-    <col min="8" max="8" width="44.83203125" customWidth="1"/>
-    <col min="9" max="9" width="51" customWidth="1"/>
+    <col min="5" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" customWidth="1"/>
+    <col min="8" max="8" width="51" customWidth="1"/>
+    <col min="9" max="9" width="44.83203125" customWidth="1"/>
+    <col min="10" max="10" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -606,21 +615,24 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>_xlfn.CONCAT(D2,"_",B2,"_",C2)</f>
+        <f t="shared" ref="A2:A17" si="0">_xlfn.CONCAT(D2,"_",B2,"_",C2)</f>
         <v>LNCaP-XIP_DMSO_H3K27ac</v>
       </c>
       <c r="B2" t="s">
@@ -635,24 +647,27 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="str">
-        <f t="shared" ref="G2:G17" si="0">_xlfn.CONCAT(E2,"/",F2)</f>
+      <c r="H2" s="2" t="str">
+        <f t="shared" ref="H2:H17" si="1">_xlfn.CONCAT(E2,"/",G2)</f>
         <v>raw_fastq/SRR19639165_1.fastq.gz</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="str">
-        <f t="shared" ref="I2:I13" si="1">_xlfn.CONCAT(E2,"/",H2)</f>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J13" si="2">_xlfn.CONCAT(E2,"/",I2)</f>
         <v>raw_fastq/SRR19639165_2.fastq.gz</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>_xlfn.CONCAT(D3,"_",B3,"_",C3)</f>
+        <f t="shared" si="0"/>
         <v>LNCaP-XIP_BG15n_H3K27ac</v>
       </c>
       <c r="B3" t="s">
@@ -667,24 +682,27 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="H3" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>raw_fastq/SRR19639164_1.fastq.gz</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" si="1"/>
+      <c r="J3" t="str">
+        <f t="shared" si="2"/>
         <v>raw_fastq/SRR19639164_2.fastq.gz</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>_xlfn.CONCAT(D4,"_",B4,"_",C4)</f>
+        <f t="shared" si="0"/>
         <v>LNCaP-XIP_DMSO_AR</v>
       </c>
       <c r="B4" t="s">
@@ -699,24 +717,27 @@
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="H4" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>raw_fastq/SRR19639163_1.fastq.gz</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" si="1"/>
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
         <v>raw_fastq/SRR19639163_2.fastq.gz</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>_xlfn.CONCAT(D5,"_",B5,"_",C5)</f>
+        <f t="shared" si="0"/>
         <v>LNCaP-XIP_BG15n_AR</v>
       </c>
       <c r="B5" t="s">
@@ -731,24 +752,27 @@
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="H5" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>raw_fastq/SRR19639162_1.fastq.gz</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" si="1"/>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
         <v>raw_fastq/SRR19639162_2.fastq.gz</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>_xlfn.CONCAT(D6,"_",B6,"_",C6)</f>
+        <f t="shared" si="0"/>
         <v>LNCaP_DMSO_SMRT</v>
       </c>
       <c r="B6" t="s">
@@ -763,24 +787,27 @@
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="H6" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>raw_fastq/SRR19639161_1.fastq.gz</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" si="1"/>
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
         <v>raw_fastq/SRR19639161_2.fastq.gz</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>_xlfn.CONCAT(D7,"_",B7,"_",C7)</f>
+        <f t="shared" si="0"/>
         <v>LNCaP_BG15n_SMRT</v>
       </c>
       <c r="B7" t="s">
@@ -795,24 +822,27 @@
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="H7" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>raw_fastq/SRR19639160_1.fastq.gz</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>31</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" si="1"/>
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
         <v>raw_fastq/SRR19639160_2.fastq.gz</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>_xlfn.CONCAT(D8,"_",B8,"_",C8)</f>
+        <f t="shared" si="0"/>
         <v>LNCaP_DMSO_NCOR1</v>
       </c>
       <c r="B8" t="s">
@@ -827,24 +857,27 @@
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="H8" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>raw_fastq/SRR19639152_1.fastq.gz</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" si="1"/>
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
         <v>raw_fastq/SRR19639152_2.fastq.gz</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>_xlfn.CONCAT(D9,"_",B9,"_",C9)</f>
+        <f t="shared" si="0"/>
         <v>LNCaP_BG15n_NCOR1</v>
       </c>
       <c r="B9" t="s">
@@ -859,24 +892,27 @@
       <c r="E9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="H9" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>raw_fastq/SRR19639151_1.fastq.gz</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>33</v>
       </c>
-      <c r="I9" t="str">
-        <f t="shared" si="1"/>
+      <c r="J9" t="str">
+        <f t="shared" si="2"/>
         <v>raw_fastq/SRR19639151_2.fastq.gz</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>_xlfn.CONCAT(D10,"_",B10,"_",C10)</f>
+        <f t="shared" si="0"/>
         <v>22Rv1_DMSO_SMRT</v>
       </c>
       <c r="B10" t="s">
@@ -891,24 +927,27 @@
       <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="H10" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>raw_fastq/SRR19639150_1.fastq.gz</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" t="str">
-        <f t="shared" si="1"/>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
         <v>raw_fastq/SRR19639150_2.fastq.gz</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>_xlfn.CONCAT(D11,"_",B11,"_",C11)</f>
+        <f t="shared" si="0"/>
         <v>22Rv1_BG15n_SMRT</v>
       </c>
       <c r="B11" t="s">
@@ -923,24 +962,27 @@
       <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="H11" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>raw_fastq/SRR19639149_1.fastq.gz</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>35</v>
       </c>
-      <c r="I11" t="str">
-        <f t="shared" si="1"/>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
         <v>raw_fastq/SRR19639149_2.fastq.gz</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>_xlfn.CONCAT(D12,"_",B12,"_",C12)</f>
+        <f t="shared" si="0"/>
         <v>22Rv1_DMSO_NCOR1</v>
       </c>
       <c r="B12" t="s">
@@ -955,24 +997,27 @@
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="H12" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>raw_fastq/SRR19639148_1.fastq.gz</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>36</v>
       </c>
-      <c r="I12" t="str">
-        <f t="shared" si="1"/>
+      <c r="J12" t="str">
+        <f t="shared" si="2"/>
         <v>raw_fastq/SRR19639148_2.fastq.gz</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>_xlfn.CONCAT(D13,"_",B13,"_",C13)</f>
+        <f t="shared" si="0"/>
         <v>22Rv1_BG15n_NCOR1</v>
       </c>
       <c r="B13" t="s">
@@ -987,24 +1032,27 @@
       <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="H13" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>raw_fastq/SRR19639147_1.fastq.gz</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>37</v>
       </c>
-      <c r="I13" t="str">
-        <f t="shared" si="1"/>
+      <c r="J13" t="str">
+        <f t="shared" si="2"/>
         <v>raw_fastq/SRR19639147_2.fastq.gz</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>_xlfn.CONCAT(D14,"_",B14,"_",C14)</f>
+        <f t="shared" si="0"/>
         <v>LAMP_DMSO_H3K27ac</v>
       </c>
       <c r="B14" t="s">
@@ -1019,17 +1067,20 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="H14" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>raw_fastq/SRR19639146.fastq.gz</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>_xlfn.CONCAT(D15,"_",B15,"_",C15)</f>
+        <f t="shared" si="0"/>
         <v>LAMP_ENZA_H3K27ac</v>
       </c>
       <c r="B15" t="s">
@@ -1044,17 +1095,20 @@
       <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="H15" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>raw_fastq/SRR19639145.fastq.gz</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>_xlfn.CONCAT(D16,"_",B16,"_",C16)</f>
+        <f t="shared" si="0"/>
         <v>LAMP_R1881_H3K27ac</v>
       </c>
       <c r="B16" t="s">
@@ -1069,17 +1123,20 @@
       <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="H16" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>raw_fastq/SRR19639144.fastq.gz</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>_xlfn.CONCAT(D17,"_",B17,"_",C17)</f>
+        <f t="shared" si="0"/>
         <v>LAMP_BG15n_H3K27ac</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1094,11 +1151,14 @@
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="2" t="str">
-        <f t="shared" si="0"/>
+      <c r="H17" s="2" t="str">
+        <f t="shared" si="1"/>
         <v>raw_fastq/SRR19639143.fastq.gz</v>
       </c>
     </row>
